--- a/data/evaluation/evaluation_North_Winter_Pomelo.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Pomelo.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2570.74074074074</v>
+        <v>2562.407407407407</v>
       </c>
       <c r="C3" t="n">
-        <v>11214968.44135802</v>
+        <v>11174119.67592593</v>
       </c>
       <c r="D3" t="n">
-        <v>3348.875698104966</v>
+        <v>3342.771256895381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2201441427995756</v>
+        <v>0.2229846455747907</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2327.273948613115</v>
+        <v>2269.259662097162</v>
       </c>
       <c r="C4" t="n">
-        <v>10442528.29530451</v>
+        <v>10239813.75236976</v>
       </c>
       <c r="D4" t="n">
-        <v>3231.490104472628</v>
+        <v>3199.970898675449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2738573543334673</v>
+        <v>0.2879535262909718</v>
       </c>
     </row>
     <row r="5">
